--- a/TradingSimula_18-2022/TF-System#6_1R.xlsx
+++ b/TradingSimula_18-2022/TF-System#6_1R.xlsx
@@ -158,12 +158,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EquityCurve'!$A$3:$A$148</f>
+              <f>'EquityCurve'!$A$3:$A$174</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EquityCurve'!$B$2:$B$148</f>
+              <f>'EquityCurve'!$B$2:$B$174</f>
             </numRef>
           </val>
         </ser>
@@ -566,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B149"/>
+  <dimension ref="A1:B175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,7 +594,7 @@
         <v>40207</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-4766.548766120217</v>
       </c>
     </row>
     <row r="4">
@@ -602,7 +602,7 @@
         <v>40235</v>
       </c>
       <c r="B4" t="n">
-        <v>-11346.33021039381</v>
+        <v>-8929.785409332004</v>
       </c>
     </row>
     <row r="5">
@@ -610,7 +610,7 @@
         <v>40268</v>
       </c>
       <c r="B5" t="n">
-        <v>-6185.63859579702</v>
+        <v>-7799.963106686449</v>
       </c>
     </row>
     <row r="6">
@@ -618,7 +618,7 @@
         <v>40298</v>
       </c>
       <c r="B6" t="n">
-        <v>-14720.95212953007</v>
+        <v>-7007.951175446911</v>
       </c>
     </row>
     <row r="7">
@@ -626,7 +626,7 @@
         <v>40326</v>
       </c>
       <c r="B7" t="n">
-        <v>-18475.93110752093</v>
+        <v>-812.6298088203325</v>
       </c>
     </row>
     <row r="8">
@@ -634,7 +634,7 @@
         <v>40359</v>
       </c>
       <c r="B8" t="n">
-        <v>-29490.10308488569</v>
+        <v>8113.044404967166</v>
       </c>
     </row>
     <row r="9">
@@ -642,7 +642,7 @@
         <v>40389</v>
       </c>
       <c r="B9" t="n">
-        <v>-35065.50032405561</v>
+        <v>5092.717228570686</v>
       </c>
     </row>
     <row r="10">
@@ -650,7 +650,7 @@
         <v>40421</v>
       </c>
       <c r="B10" t="n">
-        <v>-33875.23287968864</v>
+        <v>6906.409108832477</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         <v>40451</v>
       </c>
       <c r="B11" t="n">
-        <v>-34132.51277569842</v>
+        <v>4344.964784495492</v>
       </c>
     </row>
     <row r="12">
@@ -666,7 +666,7 @@
         <v>40480</v>
       </c>
       <c r="B12" t="n">
-        <v>-41188.07020694643</v>
+        <v>5692.360752888868</v>
       </c>
     </row>
     <row r="13">
@@ -674,7 +674,7 @@
         <v>40512</v>
       </c>
       <c r="B13" t="n">
-        <v>-43857.29521386676</v>
+        <v>2914.274259234555</v>
       </c>
     </row>
     <row r="14">
@@ -682,7 +682,7 @@
         <v>40543</v>
       </c>
       <c r="B14" t="n">
-        <v>-41824.55098754452</v>
+        <v>8126.883705711835</v>
       </c>
     </row>
     <row r="15">
@@ -690,7 +690,7 @@
         <v>40574</v>
       </c>
       <c r="B15" t="n">
-        <v>-44641.59183389336</v>
+        <v>7719.268275358623</v>
       </c>
     </row>
     <row r="16">
@@ -698,7 +698,7 @@
         <v>40602</v>
       </c>
       <c r="B16" t="n">
-        <v>-44152.42686785052</v>
+        <v>8010.065273711967</v>
       </c>
     </row>
     <row r="17">
@@ -706,7 +706,7 @@
         <v>40633</v>
       </c>
       <c r="B17" t="n">
-        <v>-40059.73933541513</v>
+        <v>6376.130476803784</v>
       </c>
     </row>
     <row r="18">
@@ -714,7 +714,7 @@
         <v>40662</v>
       </c>
       <c r="B18" t="n">
-        <v>-35776.69463092442</v>
+        <v>7634.442599909051</v>
       </c>
     </row>
     <row r="19">
@@ -722,7 +722,7 @@
         <v>40694</v>
       </c>
       <c r="B19" t="n">
-        <v>-42288.58544866359</v>
+        <v>9858.580963850161</v>
       </c>
     </row>
     <row r="20">
@@ -730,7 +730,7 @@
         <v>40724</v>
       </c>
       <c r="B20" t="n">
-        <v>-48523.09279076109</v>
+        <v>4379.126827221633</v>
       </c>
     </row>
     <row r="21">
@@ -738,7 +738,7 @@
         <v>40753</v>
       </c>
       <c r="B21" t="n">
-        <v>-51133.91849518488</v>
+        <v>4379.126827221633</v>
       </c>
     </row>
     <row r="22">
@@ -746,7 +746,7 @@
         <v>40786</v>
       </c>
       <c r="B22" t="n">
-        <v>-63380.57814553456</v>
+        <v>15328.16536808858</v>
       </c>
     </row>
     <row r="23">
@@ -754,7 +754,7 @@
         <v>40816</v>
       </c>
       <c r="B23" t="n">
-        <v>-61903.14487860307</v>
+        <v>17675.92846036499</v>
       </c>
     </row>
     <row r="24">
@@ -762,7 +762,7 @@
         <v>40847</v>
       </c>
       <c r="B24" t="n">
-        <v>-72234.03697719256</v>
+        <v>8408.171708448579</v>
       </c>
     </row>
     <row r="25">
@@ -770,7 +770,7 @@
         <v>40877</v>
       </c>
       <c r="B25" t="n">
-        <v>-83532.04454772861</v>
+        <v>8408.171708448579</v>
       </c>
     </row>
     <row r="26">
@@ -778,7 +778,7 @@
         <v>40907</v>
       </c>
       <c r="B26" t="n">
-        <v>-88122.2634690344</v>
+        <v>6750.103233612914</v>
       </c>
     </row>
     <row r="27">
@@ -786,7 +786,7 @@
         <v>40939</v>
       </c>
       <c r="B27" t="n">
-        <v>-88686.23335349078</v>
+        <v>3268.302288614515</v>
       </c>
     </row>
     <row r="28">
@@ -794,7 +794,7 @@
         <v>40968</v>
       </c>
       <c r="B28" t="n">
-        <v>-88151.86084813377</v>
+        <v>5670.869602735662</v>
       </c>
     </row>
     <row r="29">
@@ -802,7 +802,7 @@
         <v>40998</v>
       </c>
       <c r="B29" t="n">
-        <v>-100973.865676063</v>
+        <v>5521.225351421715</v>
       </c>
     </row>
     <row r="30">
@@ -810,7 +810,7 @@
         <v>41029</v>
       </c>
       <c r="B30" t="n">
-        <v>-100973.865676063</v>
+        <v>1413.889227614507</v>
       </c>
     </row>
     <row r="31">
@@ -818,7 +818,7 @@
         <v>41060</v>
       </c>
       <c r="B31" t="n">
-        <v>-76459.50281386411</v>
+        <v>8584.212978712041</v>
       </c>
     </row>
     <row r="32">
@@ -826,7 +826,7 @@
         <v>41089</v>
       </c>
       <c r="B32" t="n">
-        <v>-70197.0367608009</v>
+        <v>1537.591025804088</v>
       </c>
     </row>
     <row r="33">
@@ -834,7 +834,7 @@
         <v>41121</v>
       </c>
       <c r="B33" t="n">
-        <v>-66167.0367608009</v>
+        <v>4580.141698672125</v>
       </c>
     </row>
     <row r="34">
@@ -842,7 +842,7 @@
         <v>41152</v>
       </c>
       <c r="B34" t="n">
-        <v>-68398.82010182549</v>
+        <v>4392.578430709184</v>
       </c>
     </row>
     <row r="35">
@@ -850,7 +850,7 @@
         <v>41180</v>
       </c>
       <c r="B35" t="n">
-        <v>-70925.0145563886</v>
+        <v>1152.43852285821</v>
       </c>
     </row>
     <row r="36">
@@ -858,7 +858,7 @@
         <v>41213</v>
       </c>
       <c r="B36" t="n">
-        <v>-71272.20970882403</v>
+        <v>1152.43852285821</v>
       </c>
     </row>
     <row r="37">
@@ -866,7 +866,7 @@
         <v>41243</v>
       </c>
       <c r="B37" t="n">
-        <v>-72016.83009415799</v>
+        <v>-3405.768217369327</v>
       </c>
     </row>
     <row r="38">
@@ -874,7 +874,7 @@
         <v>41274</v>
       </c>
       <c r="B38" t="n">
-        <v>-75275.90245367291</v>
+        <v>-5325.13209713311</v>
       </c>
     </row>
     <row r="39">
@@ -882,7 +882,7 @@
         <v>41305</v>
       </c>
       <c r="B39" t="n">
-        <v>-74535.12650316147</v>
+        <v>-5466.485288661514</v>
       </c>
     </row>
     <row r="40">
@@ -890,7 +890,7 @@
         <v>41333</v>
       </c>
       <c r="B40" t="n">
-        <v>-76940.1415289985</v>
+        <v>-7416.697084774192</v>
       </c>
     </row>
     <row r="41">
@@ -898,7 +898,7 @@
         <v>41362</v>
       </c>
       <c r="B41" t="n">
-        <v>-80047.25275384617</v>
+        <v>-7416.697084774192</v>
       </c>
     </row>
     <row r="42">
@@ -906,7 +906,7 @@
         <v>41394</v>
       </c>
       <c r="B42" t="n">
-        <v>-72900.24127136015</v>
+        <v>-5856.842739710175</v>
       </c>
     </row>
     <row r="43">
@@ -914,7 +914,7 @@
         <v>41425</v>
       </c>
       <c r="B43" t="n">
-        <v>-72900.24127136015</v>
+        <v>-6533.944916307404</v>
       </c>
     </row>
     <row r="44">
@@ -922,7 +922,7 @@
         <v>41453</v>
       </c>
       <c r="B44" t="n">
-        <v>-76691.83278938185</v>
+        <v>-1986.447554555138</v>
       </c>
     </row>
     <row r="45">
@@ -930,7 +930,7 @@
         <v>41486</v>
       </c>
       <c r="B45" t="n">
-        <v>-75021.04240275906</v>
+        <v>-1521.750295048141</v>
       </c>
     </row>
     <row r="46">
@@ -938,7 +938,7 @@
         <v>41516</v>
       </c>
       <c r="B46" t="n">
-        <v>-86128.72404886092</v>
+        <v>-925.9262685223493</v>
       </c>
     </row>
     <row r="47">
@@ -946,7 +946,7 @@
         <v>41547</v>
       </c>
       <c r="B47" t="n">
-        <v>-90502.45172674078</v>
+        <v>-4031.590985444118</v>
       </c>
     </row>
     <row r="48">
@@ -954,7 +954,7 @@
         <v>41578</v>
       </c>
       <c r="B48" t="n">
-        <v>-88970.61330256387</v>
+        <v>-1384.050645745219</v>
       </c>
     </row>
     <row r="49">
@@ -962,7 +962,7 @@
         <v>41607</v>
       </c>
       <c r="B49" t="n">
-        <v>-87559.30442413225</v>
+        <v>-2913.070798402545</v>
       </c>
     </row>
     <row r="50">
@@ -970,7 +970,7 @@
         <v>41639</v>
       </c>
       <c r="B50" t="n">
-        <v>-91886.39086587619</v>
+        <v>-5095.315034163306</v>
       </c>
     </row>
     <row r="51">
@@ -978,7 +978,7 @@
         <v>41670</v>
       </c>
       <c r="B51" t="n">
-        <v>-88331.41671267079</v>
+        <v>-7461.409687289763</v>
       </c>
     </row>
     <row r="52">
@@ -986,7 +986,7 @@
         <v>41698</v>
       </c>
       <c r="B52" t="n">
-        <v>-80007.47464028532</v>
+        <v>-6306.629539851097</v>
       </c>
     </row>
     <row r="53">
@@ -994,7 +994,7 @@
         <v>41729</v>
       </c>
       <c r="B53" t="n">
-        <v>-86203.63878388678</v>
+        <v>-11088.76515216859</v>
       </c>
     </row>
     <row r="54">
@@ -1002,7 +1002,7 @@
         <v>41759</v>
       </c>
       <c r="B54" t="n">
-        <v>-86203.63878388678</v>
+        <v>-15431.94075840986</v>
       </c>
     </row>
     <row r="55">
@@ -1010,7 +1010,7 @@
         <v>41789</v>
       </c>
       <c r="B55" t="n">
-        <v>-87501.10731895504</v>
+        <v>-11484.81482199207</v>
       </c>
     </row>
     <row r="56">
@@ -1018,7 +1018,7 @@
         <v>41820</v>
       </c>
       <c r="B56" t="n">
-        <v>-89636.7371408098</v>
+        <v>-10922.51438915147</v>
       </c>
     </row>
     <row r="57">
@@ -1026,7 +1026,7 @@
         <v>41851</v>
       </c>
       <c r="B57" t="n">
-        <v>-87012.95538022742</v>
+        <v>-11934.92724166198</v>
       </c>
     </row>
     <row r="58">
@@ -1034,7 +1034,7 @@
         <v>41880</v>
       </c>
       <c r="B58" t="n">
-        <v>-93481.70162491509</v>
+        <v>-9090.719729783317</v>
       </c>
     </row>
     <row r="59">
@@ -1042,7 +1042,7 @@
         <v>41912</v>
       </c>
       <c r="B59" t="n">
-        <v>-83156.9012516026</v>
+        <v>-43301.80421199598</v>
       </c>
     </row>
     <row r="60">
@@ -1050,7 +1050,7 @@
         <v>41943</v>
       </c>
       <c r="B60" t="n">
-        <v>-72898.59319543844</v>
+        <v>-77003.75410156685</v>
       </c>
     </row>
     <row r="61">
@@ -1058,7 +1058,7 @@
         <v>41971</v>
       </c>
       <c r="B61" t="n">
-        <v>-63986.3098045747</v>
+        <v>-17445.62852280335</v>
       </c>
     </row>
     <row r="62">
@@ -1066,7 +1066,7 @@
         <v>42004</v>
       </c>
       <c r="B62" t="n">
-        <v>-29475.2079506543</v>
+        <v>-62798.35901673783</v>
       </c>
     </row>
     <row r="63">
@@ -1074,7 +1074,7 @@
         <v>42034</v>
       </c>
       <c r="B63" t="n">
-        <v>-22499.18226169647</v>
+        <v>-54403.72098815949</v>
       </c>
     </row>
     <row r="64">
@@ -1082,7 +1082,7 @@
         <v>42062</v>
       </c>
       <c r="B64" t="n">
-        <v>-24209.18226169648</v>
+        <v>-63456.24449275151</v>
       </c>
     </row>
     <row r="65">
@@ -1090,7 +1090,7 @@
         <v>42094</v>
       </c>
       <c r="B65" t="n">
-        <v>-24209.18226169648</v>
+        <v>-83774.8728201741</v>
       </c>
     </row>
     <row r="66">
@@ -1098,7 +1098,7 @@
         <v>42124</v>
       </c>
       <c r="B66" t="n">
-        <v>-25290.5346028708</v>
+        <v>-87277.42029724526</v>
       </c>
     </row>
     <row r="67">
@@ -1106,7 +1106,7 @@
         <v>42153</v>
       </c>
       <c r="B67" t="n">
-        <v>-28576.26074599154</v>
+        <v>-85674.68391678478</v>
       </c>
     </row>
     <row r="68">
@@ -1114,7 +1114,7 @@
         <v>42185</v>
       </c>
       <c r="B68" t="n">
-        <v>-28576.26074599154</v>
+        <v>-89858.12250499519</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         <v>42216</v>
       </c>
       <c r="B69" t="n">
-        <v>-20457.06994567323</v>
+        <v>-141901.003390056</v>
       </c>
     </row>
     <row r="70">
@@ -1130,7 +1130,7 @@
         <v>42247</v>
       </c>
       <c r="B70" t="n">
-        <v>-12819.5445433384</v>
+        <v>-52131.59938067197</v>
       </c>
     </row>
     <row r="71">
@@ -1138,7 +1138,7 @@
         <v>42277</v>
       </c>
       <c r="B71" t="n">
-        <v>-12068.34862144283</v>
+        <v>-36316.65502696358</v>
       </c>
     </row>
     <row r="72">
@@ -1146,7 +1146,7 @@
         <v>42307</v>
       </c>
       <c r="B72" t="n">
-        <v>-7377.875249614244</v>
+        <v>-81477.63464214488</v>
       </c>
     </row>
     <row r="73">
@@ -1154,7 +1154,7 @@
         <v>42338</v>
       </c>
       <c r="B73" t="n">
-        <v>-759.6127874879094</v>
+        <v>-82104.71978941793</v>
       </c>
     </row>
     <row r="74">
@@ -1162,7 +1162,7 @@
         <v>42369</v>
       </c>
       <c r="B74" t="n">
-        <v>19954.00557311339</v>
+        <v>-82536.36815892838</v>
       </c>
     </row>
     <row r="75">
@@ -1170,7 +1170,7 @@
         <v>42398</v>
       </c>
       <c r="B75" t="n">
-        <v>30221.49253995073</v>
+        <v>-118201.4679911695</v>
       </c>
     </row>
     <row r="76">
@@ -1178,7 +1178,7 @@
         <v>42429</v>
       </c>
       <c r="B76" t="n">
-        <v>31589.23286537372</v>
+        <v>-195359.4956542112</v>
       </c>
     </row>
     <row r="77">
@@ -1186,7 +1186,7 @@
         <v>42460</v>
       </c>
       <c r="B77" t="n">
-        <v>31184.34763433472</v>
+        <v>-199946.9956542112</v>
       </c>
     </row>
     <row r="78">
@@ -1194,7 +1194,7 @@
         <v>42489</v>
       </c>
       <c r="B78" t="n">
-        <v>35242.51917720304</v>
+        <v>-199946.9956542112</v>
       </c>
     </row>
     <row r="79">
@@ -1202,7 +1202,7 @@
         <v>42521</v>
       </c>
       <c r="B79" t="n">
-        <v>37109.87468531408</v>
+        <v>-199946.9956542112</v>
       </c>
     </row>
     <row r="80">
@@ -1210,7 +1210,7 @@
         <v>42551</v>
       </c>
       <c r="B80" t="n">
-        <v>41452.26550981963</v>
+        <v>-196951.3694535891</v>
       </c>
     </row>
     <row r="81">
@@ -1218,7 +1218,7 @@
         <v>42580</v>
       </c>
       <c r="B81" t="n">
-        <v>41430.20100997802</v>
+        <v>-166357.5016184938</v>
       </c>
     </row>
     <row r="82">
@@ -1226,7 +1226,7 @@
         <v>42613</v>
       </c>
       <c r="B82" t="n">
-        <v>34039.56647763854</v>
+        <v>-166679.8875703662</v>
       </c>
     </row>
     <row r="83">
@@ -1234,7 +1234,7 @@
         <v>42643</v>
       </c>
       <c r="B83" t="n">
-        <v>32078.40479014999</v>
+        <v>-166679.8875703662</v>
       </c>
     </row>
     <row r="84">
@@ -1242,7 +1242,7 @@
         <v>42674</v>
       </c>
       <c r="B84" t="n">
-        <v>27004.75543577725</v>
+        <v>-168590.1403471612</v>
       </c>
     </row>
     <row r="85">
@@ -1250,7 +1250,7 @@
         <v>42704</v>
       </c>
       <c r="B85" t="n">
-        <v>27378.81271187407</v>
+        <v>-281109.2176299172</v>
       </c>
     </row>
     <row r="86">
@@ -1258,7 +1258,7 @@
         <v>42734</v>
       </c>
       <c r="B86" t="n">
-        <v>29394.09985855436</v>
+        <v>-201707.6664666474</v>
       </c>
     </row>
     <row r="87">
@@ -1266,7 +1266,7 @@
         <v>42766</v>
       </c>
       <c r="B87" t="n">
-        <v>24564.76995180536</v>
+        <v>-199451.4386978965</v>
       </c>
     </row>
     <row r="88">
@@ -1274,7 +1274,7 @@
         <v>42794</v>
       </c>
       <c r="B88" t="n">
-        <v>24926.14186233865</v>
+        <v>-195485.0629148052</v>
       </c>
     </row>
     <row r="89">
@@ -1282,7 +1282,7 @@
         <v>42825</v>
       </c>
       <c r="B89" t="n">
-        <v>20905.14691101119</v>
+        <v>-230153.5844867294</v>
       </c>
     </row>
     <row r="90">
@@ -1290,7 +1290,7 @@
         <v>42853</v>
       </c>
       <c r="B90" t="n">
-        <v>20905.14691101119</v>
+        <v>-230419.0801207333</v>
       </c>
     </row>
     <row r="91">
@@ -1298,7 +1298,7 @@
         <v>42886</v>
       </c>
       <c r="B91" t="n">
-        <v>19435.09105240086</v>
+        <v>-229271.1350439169</v>
       </c>
     </row>
     <row r="92">
@@ -1306,7 +1306,7 @@
         <v>42916</v>
       </c>
       <c r="B92" t="n">
-        <v>19431.70561183101</v>
+        <v>-225017.1486545286</v>
       </c>
     </row>
     <row r="93">
@@ -1314,7 +1314,7 @@
         <v>42947</v>
       </c>
       <c r="B93" t="n">
-        <v>17324.12811343199</v>
+        <v>-170898.8450470783</v>
       </c>
     </row>
     <row r="94">
@@ -1322,7 +1322,7 @@
         <v>42978</v>
       </c>
       <c r="B94" t="n">
-        <v>14637.82347346733</v>
+        <v>-159700.9554702286</v>
       </c>
     </row>
     <row r="95">
@@ -1330,7 +1330,7 @@
         <v>43007</v>
       </c>
       <c r="B95" t="n">
-        <v>17807.46720288128</v>
+        <v>-149008.3003487614</v>
       </c>
     </row>
     <row r="96">
@@ -1338,7 +1338,7 @@
         <v>43039</v>
       </c>
       <c r="B96" t="n">
-        <v>16886.00424680891</v>
+        <v>-50235.2544219907</v>
       </c>
     </row>
     <row r="97">
@@ -1346,7 +1346,7 @@
         <v>43069</v>
       </c>
       <c r="B97" t="n">
-        <v>14761.35302792678</v>
+        <v>-25931.58675983693</v>
       </c>
     </row>
     <row r="98">
@@ -1354,7 +1354,7 @@
         <v>43098</v>
       </c>
       <c r="B98" t="n">
-        <v>16001.35790931618</v>
+        <v>15155.07689811582</v>
       </c>
     </row>
     <row r="99">
@@ -1362,7 +1362,7 @@
         <v>43131</v>
       </c>
       <c r="B99" t="n">
-        <v>15590.38206331601</v>
+        <v>192442.8001025621</v>
       </c>
     </row>
     <row r="100">
@@ -1370,7 +1370,7 @@
         <v>43159</v>
       </c>
       <c r="B100" t="n">
-        <v>11389.75156656875</v>
+        <v>187896.7351210019</v>
       </c>
     </row>
     <row r="101">
@@ -1378,7 +1378,7 @@
         <v>43188</v>
       </c>
       <c r="B101" t="n">
-        <v>11389.75156656875</v>
+        <v>135470.9042886569</v>
       </c>
     </row>
     <row r="102">
@@ -1386,7 +1386,7 @@
         <v>43220</v>
       </c>
       <c r="B102" t="n">
-        <v>12132.81425160958</v>
+        <v>103712.537661861</v>
       </c>
     </row>
     <row r="103">
@@ -1394,7 +1394,7 @@
         <v>43251</v>
       </c>
       <c r="B103" t="n">
-        <v>19556.85635394516</v>
+        <v>98775.87763749306</v>
       </c>
     </row>
     <row r="104">
@@ -1402,7 +1402,7 @@
         <v>43280</v>
       </c>
       <c r="B104" t="n">
-        <v>19975.11513843828</v>
+        <v>96378.31983552058</v>
       </c>
     </row>
     <row r="105">
@@ -1410,7 +1410,7 @@
         <v>43312</v>
       </c>
       <c r="B105" t="n">
-        <v>15795.11513843828</v>
+        <v>92956.85534782356</v>
       </c>
     </row>
     <row r="106">
@@ -1418,7 +1418,7 @@
         <v>43343</v>
       </c>
       <c r="B106" t="n">
-        <v>15795.11513843828</v>
+        <v>95904.20751486669</v>
       </c>
     </row>
     <row r="107">
@@ -1426,7 +1426,7 @@
         <v>43371</v>
       </c>
       <c r="B107" t="n">
-        <v>15491.35695521284</v>
+        <v>78635.20070291875</v>
       </c>
     </row>
     <row r="108">
@@ -1434,7 +1434,7 @@
         <v>43404</v>
       </c>
       <c r="B108" t="n">
-        <v>14624.65449853793</v>
+        <v>10076.52438130398</v>
       </c>
     </row>
     <row r="109">
@@ -1442,7 +1442,7 @@
         <v>43434</v>
       </c>
       <c r="B109" t="n">
-        <v>46544.2740412592</v>
+        <v>-142049.7807935149</v>
       </c>
     </row>
     <row r="110">
@@ -1450,7 +1450,7 @@
         <v>43465</v>
       </c>
       <c r="B110" t="n">
-        <v>50052.68790771303</v>
+        <v>-38831.58975119947</v>
       </c>
     </row>
     <row r="111">
@@ -1458,7 +1458,7 @@
         <v>43496</v>
       </c>
       <c r="B111" t="n">
-        <v>45712.48954599775</v>
+        <v>-175689.7670623307</v>
       </c>
     </row>
     <row r="112">
@@ -1466,7 +1466,7 @@
         <v>43524</v>
       </c>
       <c r="B112" t="n">
-        <v>45712.48954599775</v>
+        <v>-176979.795247518</v>
       </c>
     </row>
     <row r="113">
@@ -1474,7 +1474,7 @@
         <v>43553</v>
       </c>
       <c r="B113" t="n">
-        <v>45712.48954599775</v>
+        <v>-176302.0939514814</v>
       </c>
     </row>
     <row r="114">
@@ -1482,7 +1482,7 @@
         <v>43585</v>
       </c>
       <c r="B114" t="n">
-        <v>47523.7729292965</v>
+        <v>-172413.9059514815</v>
       </c>
     </row>
     <row r="115">
@@ -1490,7 +1490,7 @@
         <v>43616</v>
       </c>
       <c r="B115" t="n">
-        <v>45143.24208729135</v>
+        <v>-136115.1027174436</v>
       </c>
     </row>
     <row r="116">
@@ -1498,7 +1498,7 @@
         <v>43644</v>
       </c>
       <c r="B116" t="n">
-        <v>44159.21456469573</v>
+        <v>-248989.0432897161</v>
       </c>
     </row>
     <row r="117">
@@ -1506,7 +1506,7 @@
         <v>43677</v>
       </c>
       <c r="B117" t="n">
-        <v>43082.40187307833</v>
+        <v>-194175.8641799798</v>
       </c>
     </row>
     <row r="118">
@@ -1514,7 +1514,7 @@
         <v>43707</v>
       </c>
       <c r="B118" t="n">
-        <v>31707.93565255291</v>
+        <v>-302809.3758908971</v>
       </c>
     </row>
     <row r="119">
@@ -1522,7 +1522,7 @@
         <v>43738</v>
       </c>
       <c r="B119" t="n">
-        <v>18904.17354957939</v>
+        <v>-303794.0976340664</v>
       </c>
     </row>
     <row r="120">
@@ -1530,7 +1530,7 @@
         <v>43769</v>
       </c>
       <c r="B120" t="n">
-        <v>15035.49034216243</v>
+        <v>-305337.6080822463</v>
       </c>
     </row>
     <row r="121">
@@ -1538,7 +1538,7 @@
         <v>43798</v>
       </c>
       <c r="B121" t="n">
-        <v>13142.49104315395</v>
+        <v>-258469.1423645603</v>
       </c>
     </row>
     <row r="122">
@@ -1546,7 +1546,7 @@
         <v>43830</v>
       </c>
       <c r="B122" t="n">
-        <v>16079.55749889374</v>
+        <v>-282303.3769509494</v>
       </c>
     </row>
     <row r="123">
@@ -1554,7 +1554,7 @@
         <v>43861</v>
       </c>
       <c r="B123" t="n">
-        <v>20062.82074497379</v>
+        <v>-336369.3160211713</v>
       </c>
     </row>
     <row r="124">
@@ -1562,7 +1562,7 @@
         <v>43889</v>
       </c>
       <c r="B124" t="n">
-        <v>27808.93387755747</v>
+        <v>-148194.6494199481</v>
       </c>
     </row>
     <row r="125">
@@ -1570,7 +1570,7 @@
         <v>43921</v>
       </c>
       <c r="B125" t="n">
-        <v>70652.27653396539</v>
+        <v>258328.6233011731</v>
       </c>
     </row>
     <row r="126">
@@ -1578,7 +1578,7 @@
         <v>43951</v>
       </c>
       <c r="B126" t="n">
-        <v>76474.19366303284</v>
+        <v>-11563.70328103491</v>
       </c>
     </row>
     <row r="127">
@@ -1586,7 +1586,7 @@
         <v>43980</v>
       </c>
       <c r="B127" t="n">
-        <v>70227.14718562871</v>
+        <v>-11251.20328103491</v>
       </c>
     </row>
     <row r="128">
@@ -1594,7 +1594,7 @@
         <v>44012</v>
       </c>
       <c r="B128" t="n">
-        <v>71732.44151415257</v>
+        <v>-11544.42758283843</v>
       </c>
     </row>
     <row r="129">
@@ -1602,7 +1602,7 @@
         <v>44043</v>
       </c>
       <c r="B129" t="n">
-        <v>71732.44151415257</v>
+        <v>-13032.35556038318</v>
       </c>
     </row>
     <row r="130">
@@ -1610,7 +1610,7 @@
         <v>44074</v>
       </c>
       <c r="B130" t="n">
-        <v>73966.74718988428</v>
+        <v>58429.05220359092</v>
       </c>
     </row>
     <row r="131">
@@ -1618,7 +1618,7 @@
         <v>44104</v>
       </c>
       <c r="B131" t="n">
-        <v>72211.88825357641</v>
+        <v>10559.65252217043</v>
       </c>
     </row>
     <row r="132">
@@ -1626,7 +1626,7 @@
         <v>44134</v>
       </c>
       <c r="B132" t="n">
-        <v>65853.20109514135</v>
+        <v>-2457.131357719441</v>
       </c>
     </row>
     <row r="133">
@@ -1634,7 +1634,7 @@
         <v>44165</v>
       </c>
       <c r="B133" t="n">
-        <v>59264.36037850958</v>
+        <v>55016.71063441205</v>
       </c>
     </row>
     <row r="134">
@@ -1642,7 +1642,7 @@
         <v>44196</v>
       </c>
       <c r="B134" t="n">
-        <v>62390.45745380474</v>
+        <v>85938.99565763891</v>
       </c>
     </row>
     <row r="135">
@@ -1650,7 +1650,7 @@
         <v>44225</v>
       </c>
       <c r="B135" t="n">
-        <v>69354.42356946995</v>
+        <v>79624.44137591818</v>
       </c>
     </row>
     <row r="136">
@@ -1658,7 +1658,7 @@
         <v>44253</v>
       </c>
       <c r="B136" t="n">
-        <v>78495.41814691367</v>
+        <v>87802.80067495396</v>
       </c>
     </row>
     <row r="137">
@@ -1666,7 +1666,7 @@
         <v>44286</v>
       </c>
       <c r="B137" t="n">
-        <v>69665.42524184429</v>
+        <v>154765.4423512774</v>
       </c>
     </row>
     <row r="138">
@@ -1674,7 +1674,7 @@
         <v>44316</v>
       </c>
       <c r="B138" t="n">
-        <v>69665.42524184429</v>
+        <v>244971.5543785056</v>
       </c>
     </row>
     <row r="139">
@@ -1682,7 +1682,7 @@
         <v>44344</v>
       </c>
       <c r="B139" t="n">
-        <v>65819.96763496008</v>
+        <v>154859.1246909559</v>
       </c>
     </row>
     <row r="140">
@@ -1690,7 +1690,7 @@
         <v>44377</v>
       </c>
       <c r="B140" t="n">
-        <v>75018.58697872232</v>
+        <v>153543.0133220635</v>
       </c>
     </row>
     <row r="141">
@@ -1698,7 +1698,7 @@
         <v>44407</v>
       </c>
       <c r="B141" t="n">
-        <v>74075.74228634044</v>
+        <v>136745.4017184968</v>
       </c>
     </row>
     <row r="142">
@@ -1706,7 +1706,7 @@
         <v>44439</v>
       </c>
       <c r="B142" t="n">
-        <v>66437.16261764751</v>
+        <v>136039.2906251242</v>
       </c>
     </row>
     <row r="143">
@@ -1714,7 +1714,7 @@
         <v>44469</v>
       </c>
       <c r="B143" t="n">
-        <v>85530.01705744577</v>
+        <v>121967.1520821465</v>
       </c>
     </row>
     <row r="144">
@@ -1722,7 +1722,7 @@
         <v>44498</v>
       </c>
       <c r="B144" t="n">
-        <v>87841.26517113225</v>
+        <v>43934.59422372616</v>
       </c>
     </row>
     <row r="145">
@@ -1730,7 +1730,7 @@
         <v>44530</v>
       </c>
       <c r="B145" t="n">
-        <v>80798.76062464013</v>
+        <v>-16106.15899355574</v>
       </c>
     </row>
     <row r="146">
@@ -1738,7 +1738,7 @@
         <v>44561</v>
       </c>
       <c r="B146" t="n">
-        <v>80748.76062464013</v>
+        <v>-19799.83842818858</v>
       </c>
     </row>
     <row r="147">
@@ -1746,7 +1746,7 @@
         <v>44592</v>
       </c>
       <c r="B147" t="n">
-        <v>86496.6769181155</v>
+        <v>-239013.0619856103</v>
       </c>
     </row>
     <row r="148">
@@ -1754,7 +1754,7 @@
         <v>44620</v>
       </c>
       <c r="B148" t="n">
-        <v>97264.53223956496</v>
+        <v>-246855.7279057609</v>
       </c>
     </row>
     <row r="149">
@@ -1762,7 +1762,215 @@
         <v>44651</v>
       </c>
       <c r="B149" t="n">
-        <v>121796.2105484642</v>
+        <v>-413911.4981335091</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>44680</v>
+      </c>
+      <c r="B150" t="n">
+        <v>-411246.5547838694</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>44712</v>
+      </c>
+      <c r="B151" t="n">
+        <v>-362305.584736006</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B152" t="n">
+        <v>-401968.2050416628</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>44771</v>
+      </c>
+      <c r="B153" t="n">
+        <v>-401968.2050416628</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="B154" t="n">
+        <v>-533631.706939423</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>44834</v>
+      </c>
+      <c r="B155" t="n">
+        <v>-433176.1878613775</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>44865</v>
+      </c>
+      <c r="B156" t="n">
+        <v>-843858.0658061563</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>44895</v>
+      </c>
+      <c r="B157" t="n">
+        <v>-843858.0658061563</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>44925</v>
+      </c>
+      <c r="B158" t="n">
+        <v>-843858.0658061563</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B159" t="n">
+        <v>-845497.7065690155</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>44985</v>
+      </c>
+      <c r="B160" t="n">
+        <v>-845806.8280451795</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>45016</v>
+      </c>
+      <c r="B161" t="n">
+        <v>-917053.3217139477</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B162" t="n">
+        <v>-935045.0763380544</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>45077</v>
+      </c>
+      <c r="B163" t="n">
+        <v>-922018.9839180837</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="B164" t="n">
+        <v>-935144.147698542</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B165" t="n">
+        <v>-927676.7400550678</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="B166" t="n">
+        <v>-1056487.749527928</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>45198</v>
+      </c>
+      <c r="B167" t="n">
+        <v>-1038162.544749083</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="B168" t="n">
+        <v>-1055768.442760485</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="B169" t="n">
+        <v>-1130011.743088343</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>45289</v>
+      </c>
+      <c r="B170" t="n">
+        <v>-965006.6122827784</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="B171" t="n">
+        <v>-1000252.993842374</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="B172" t="n">
+        <v>-991335.8589650183</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="B173" t="n">
+        <v>-1005278.490316544</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B174" t="n">
+        <v>-1110098.805839634</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="B175" t="n">
+        <v>-1193998.805839634</v>
       </c>
     </row>
   </sheetData>

--- a/TradingSimula_18-2022/TF-System#6_1R.xlsx
+++ b/TradingSimula_18-2022/TF-System#6_1R.xlsx
@@ -158,12 +158,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EquityCurve'!$A$3:$A$174</f>
+              <f>'EquityCurve'!$A$3:$A$296</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EquityCurve'!$B$2:$B$174</f>
+              <f>'EquityCurve'!$B$2:$B$296</f>
             </numRef>
           </val>
         </ser>
@@ -566,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B175"/>
+  <dimension ref="A1:B297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -591,1386 +591,2362 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>40207</v>
+        <v>36556</v>
       </c>
       <c r="B3" t="n">
-        <v>-4766.548766120217</v>
+        <v>-8730.08202719234</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>40235</v>
+        <v>36585</v>
       </c>
       <c r="B4" t="n">
-        <v>-8929.785409332004</v>
+        <v>-179670.6729373852</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>40268</v>
+        <v>36616</v>
       </c>
       <c r="B5" t="n">
-        <v>-7799.963106686449</v>
+        <v>-248713.3497875595</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>40298</v>
+        <v>36644</v>
       </c>
       <c r="B6" t="n">
-        <v>-7007.951175446911</v>
+        <v>-362270.2820815994</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>40326</v>
+        <v>36677</v>
       </c>
       <c r="B7" t="n">
-        <v>-812.6298088203325</v>
+        <v>-356611.9506012769</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>40359</v>
+        <v>36707</v>
       </c>
       <c r="B8" t="n">
-        <v>8113.044404967166</v>
+        <v>-363850.0044925983</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>40389</v>
+        <v>36738</v>
       </c>
       <c r="B9" t="n">
-        <v>5092.717228570686</v>
+        <v>-377663.4138820578</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>40421</v>
+        <v>36769</v>
       </c>
       <c r="B10" t="n">
-        <v>6906.409108832477</v>
+        <v>-423501.3868220587</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>40451</v>
+        <v>36798</v>
       </c>
       <c r="B11" t="n">
-        <v>4344.964784495492</v>
+        <v>-413631.2203830618</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>40480</v>
+        <v>36830</v>
       </c>
       <c r="B12" t="n">
-        <v>5692.360752888868</v>
+        <v>-428364.3415359388</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>40512</v>
+        <v>36860</v>
       </c>
       <c r="B13" t="n">
-        <v>2914.274259234555</v>
+        <v>-469643.5271358667</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>40543</v>
+        <v>36889</v>
       </c>
       <c r="B14" t="n">
-        <v>8126.883705711835</v>
+        <v>-448250.4250764708</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>40574</v>
+        <v>36922</v>
       </c>
       <c r="B15" t="n">
-        <v>7719.268275358623</v>
+        <v>-532735.6295319872</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>40602</v>
+        <v>36950</v>
       </c>
       <c r="B16" t="n">
-        <v>8010.065273711967</v>
+        <v>-515526.1179561706</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>40633</v>
+        <v>36980</v>
       </c>
       <c r="B17" t="n">
-        <v>6376.130476803784</v>
+        <v>-500321.1368903661</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>40662</v>
+        <v>37011</v>
       </c>
       <c r="B18" t="n">
-        <v>7634.442599909051</v>
+        <v>-548815.2238391638</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>40694</v>
+        <v>37042</v>
       </c>
       <c r="B19" t="n">
-        <v>9858.580963850161</v>
+        <v>-683954.3407374643</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>40724</v>
+        <v>37071</v>
       </c>
       <c r="B20" t="n">
-        <v>4379.126827221633</v>
+        <v>-689787.5522311529</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>40753</v>
+        <v>37103</v>
       </c>
       <c r="B21" t="n">
-        <v>4379.126827221633</v>
+        <v>-640459.782666115</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>40786</v>
+        <v>37134</v>
       </c>
       <c r="B22" t="n">
-        <v>15328.16536808858</v>
+        <v>-597270.4833491328</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>40816</v>
+        <v>37162</v>
       </c>
       <c r="B23" t="n">
-        <v>17675.92846036499</v>
+        <v>-593165.4183987241</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>40847</v>
+        <v>37195</v>
       </c>
       <c r="B24" t="n">
-        <v>8408.171708448579</v>
+        <v>-750674.367394664</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>40877</v>
+        <v>37225</v>
       </c>
       <c r="B25" t="n">
-        <v>8408.171708448579</v>
+        <v>-803284.0070761236</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>40907</v>
+        <v>37256</v>
       </c>
       <c r="B26" t="n">
-        <v>6750.103233612914</v>
+        <v>-901053.2114194303</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>40939</v>
+        <v>37287</v>
       </c>
       <c r="B27" t="n">
-        <v>3268.302288614515</v>
+        <v>-961264.0149076211</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>40968</v>
+        <v>37315</v>
       </c>
       <c r="B28" t="n">
-        <v>5670.869602735662</v>
+        <v>-1040506.323481537</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>40998</v>
+        <v>37343</v>
       </c>
       <c r="B29" t="n">
-        <v>5521.225351421715</v>
+        <v>-1022581.194029568</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>41029</v>
+        <v>37376</v>
       </c>
       <c r="B30" t="n">
-        <v>1413.889227614507</v>
+        <v>-1158412.701816684</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>41060</v>
+        <v>37407</v>
       </c>
       <c r="B31" t="n">
-        <v>8584.212978712041</v>
+        <v>-1154979.296526448</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>41089</v>
+        <v>37435</v>
       </c>
       <c r="B32" t="n">
-        <v>1537.591025804088</v>
+        <v>-1207142.122190304</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>41121</v>
+        <v>37468</v>
       </c>
       <c r="B33" t="n">
-        <v>4580.141698672125</v>
+        <v>-1124550.859556885</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>41152</v>
+        <v>37498</v>
       </c>
       <c r="B34" t="n">
-        <v>4392.578430709184</v>
+        <v>-1284577.894005627</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>41180</v>
+        <v>37529</v>
       </c>
       <c r="B35" t="n">
-        <v>1152.43852285821</v>
+        <v>-1340852.096972181</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>41213</v>
+        <v>37560</v>
       </c>
       <c r="B36" t="n">
-        <v>1152.43852285821</v>
+        <v>-1372668.247276313</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>41243</v>
+        <v>37589</v>
       </c>
       <c r="B37" t="n">
-        <v>-3405.768217369327</v>
+        <v>-1374758.255593095</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B38" t="n">
-        <v>-5325.13209713311</v>
+        <v>-1445943.125480752</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>41305</v>
+        <v>37652</v>
       </c>
       <c r="B39" t="n">
-        <v>-5466.485288661514</v>
+        <v>-1387762.8097247</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>41333</v>
+        <v>37680</v>
       </c>
       <c r="B40" t="n">
-        <v>-7416.697084774192</v>
+        <v>-1505930.097186211</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>41362</v>
+        <v>37711</v>
       </c>
       <c r="B41" t="n">
-        <v>-7416.697084774192</v>
+        <v>-1598563.745312704</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>41394</v>
+        <v>37741</v>
       </c>
       <c r="B42" t="n">
-        <v>-5856.842739710175</v>
+        <v>-1599960.325031611</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>41425</v>
+        <v>37771</v>
       </c>
       <c r="B43" t="n">
-        <v>-6533.944916307404</v>
+        <v>-1587199.010020481</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>41453</v>
+        <v>37802</v>
       </c>
       <c r="B44" t="n">
-        <v>-1986.447554555138</v>
+        <v>-1586305.917678074</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>41486</v>
+        <v>37833</v>
       </c>
       <c r="B45" t="n">
-        <v>-1521.750295048141</v>
+        <v>-1530183.106728857</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>41516</v>
+        <v>37862</v>
       </c>
       <c r="B46" t="n">
-        <v>-925.9262685223493</v>
+        <v>-1753642.158397783</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B47" t="n">
-        <v>-4031.590985444118</v>
+        <v>-1790828.00578891</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>41578</v>
+        <v>37925</v>
       </c>
       <c r="B48" t="n">
-        <v>-1384.050645745219</v>
+        <v>-1564958.252681091</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>41607</v>
+        <v>37953</v>
       </c>
       <c r="B49" t="n">
-        <v>-2913.070798402545</v>
+        <v>-1685264.430352581</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B50" t="n">
-        <v>-5095.315034163306</v>
+        <v>-1198600.140848806</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>41670</v>
+        <v>38016</v>
       </c>
       <c r="B51" t="n">
-        <v>-7461.409687289763</v>
+        <v>-784326.9102782772</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>41698</v>
+        <v>38044</v>
       </c>
       <c r="B52" t="n">
-        <v>-6306.629539851097</v>
+        <v>-436647.4194091779</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B53" t="n">
-        <v>-11088.76515216859</v>
+        <v>-363.0398392411545</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>41759</v>
+        <v>38107</v>
       </c>
       <c r="B54" t="n">
-        <v>-15431.94075840986</v>
+        <v>-310895.6072923562</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>41789</v>
+        <v>38135</v>
       </c>
       <c r="B55" t="n">
-        <v>-11484.81482199207</v>
+        <v>-312733.3676273116</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B56" t="n">
-        <v>-10922.51438915147</v>
+        <v>-464393.6613189778</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>41851</v>
+        <v>38198</v>
       </c>
       <c r="B57" t="n">
-        <v>-11934.92724166198</v>
+        <v>-522112.641613902</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>41880</v>
+        <v>38230</v>
       </c>
       <c r="B58" t="n">
-        <v>-9090.719729783317</v>
+        <v>-549850.0394996805</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B59" t="n">
-        <v>-43301.80421199598</v>
+        <v>-545131.575878611</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>41943</v>
+        <v>38289</v>
       </c>
       <c r="B60" t="n">
-        <v>-77003.75410156685</v>
+        <v>-670222.0536099586</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>41971</v>
+        <v>38321</v>
       </c>
       <c r="B61" t="n">
-        <v>-17445.62852280335</v>
+        <v>-520775.84726698</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B62" t="n">
-        <v>-62798.35901673783</v>
+        <v>-436460.191402746</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>42034</v>
+        <v>38383</v>
       </c>
       <c r="B63" t="n">
-        <v>-54403.72098815949</v>
+        <v>-443299.9827796282</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>42062</v>
+        <v>38411</v>
       </c>
       <c r="B64" t="n">
-        <v>-63456.24449275151</v>
+        <v>-443787.5319945621</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B65" t="n">
-        <v>-83774.8728201741</v>
+        <v>-465122.2240505273</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>42124</v>
+        <v>38471</v>
       </c>
       <c r="B66" t="n">
-        <v>-87277.42029724526</v>
+        <v>-460663.9172804007</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>42153</v>
+        <v>38503</v>
       </c>
       <c r="B67" t="n">
-        <v>-85674.68391678478</v>
+        <v>-458688.6649607474</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B68" t="n">
-        <v>-89858.12250499519</v>
+        <v>-648398.4060214265</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>42216</v>
+        <v>38562</v>
       </c>
       <c r="B69" t="n">
-        <v>-141901.003390056</v>
+        <v>-657749.2444269551</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>42247</v>
+        <v>38595</v>
       </c>
       <c r="B70" t="n">
-        <v>-52131.59938067197</v>
+        <v>-631579.112429467</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B71" t="n">
-        <v>-36316.65502696358</v>
+        <v>-604432.8534056059</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>42307</v>
+        <v>38656</v>
       </c>
       <c r="B72" t="n">
-        <v>-81477.63464214488</v>
+        <v>-691332.7988509535</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>42338</v>
+        <v>38686</v>
       </c>
       <c r="B73" t="n">
-        <v>-82104.71978941793</v>
+        <v>-407041.4259452629</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>42369</v>
+        <v>38716</v>
       </c>
       <c r="B74" t="n">
-        <v>-82536.36815892838</v>
+        <v>-139356.9373701236</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>42398</v>
+        <v>38748</v>
       </c>
       <c r="B75" t="n">
-        <v>-118201.4679911695</v>
+        <v>128732.5407378515</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>42429</v>
+        <v>38776</v>
       </c>
       <c r="B76" t="n">
-        <v>-195359.4956542112</v>
+        <v>-129215.3132380294</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B77" t="n">
-        <v>-199946.9956542112</v>
+        <v>828282.0742368365</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>42489</v>
+        <v>38835</v>
       </c>
       <c r="B78" t="n">
-        <v>-199946.9956542112</v>
+        <v>3987514.412766718</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>42521</v>
+        <v>38868</v>
       </c>
       <c r="B79" t="n">
-        <v>-199946.9956542112</v>
+        <v>4150680.880609104</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B80" t="n">
-        <v>-196951.3694535891</v>
+        <v>3412989.478852292</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>42580</v>
+        <v>38929</v>
       </c>
       <c r="B81" t="n">
-        <v>-166357.5016184938</v>
+        <v>3384826.632996663</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>42613</v>
+        <v>38960</v>
       </c>
       <c r="B82" t="n">
-        <v>-166679.8875703662</v>
+        <v>3373180.959585515</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>42643</v>
+        <v>38989</v>
       </c>
       <c r="B83" t="n">
-        <v>-166679.8875703662</v>
+        <v>3388066.746145016</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>42674</v>
+        <v>39021</v>
       </c>
       <c r="B84" t="n">
-        <v>-168590.1403471612</v>
+        <v>3412150.499526201</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>42704</v>
+        <v>39051</v>
       </c>
       <c r="B85" t="n">
-        <v>-281109.2176299172</v>
+        <v>3422733.204771393</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>42734</v>
+        <v>39080</v>
       </c>
       <c r="B86" t="n">
-        <v>-201707.6664666474</v>
+        <v>3798881.009671245</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>42766</v>
+        <v>39113</v>
       </c>
       <c r="B87" t="n">
-        <v>-199451.4386978965</v>
+        <v>4401867.737937757</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>42794</v>
+        <v>39141</v>
       </c>
       <c r="B88" t="n">
-        <v>-195485.0629148052</v>
+        <v>4508463.015693095</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>42825</v>
+        <v>39171</v>
       </c>
       <c r="B89" t="n">
-        <v>-230153.5844867294</v>
+        <v>4468756.093503084</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>42853</v>
+        <v>39202</v>
       </c>
       <c r="B90" t="n">
-        <v>-230419.0801207333</v>
+        <v>5222644.38977453</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>42886</v>
+        <v>39233</v>
       </c>
       <c r="B91" t="n">
-        <v>-229271.1350439169</v>
+        <v>4605918.140632143</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>42916</v>
+        <v>39262</v>
       </c>
       <c r="B92" t="n">
-        <v>-225017.1486545286</v>
+        <v>4714343.367820255</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>42947</v>
+        <v>39294</v>
       </c>
       <c r="B93" t="n">
-        <v>-170898.8450470783</v>
+        <v>4424361.106268852</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>42978</v>
+        <v>39325</v>
       </c>
       <c r="B94" t="n">
-        <v>-159700.9554702286</v>
+        <v>4393423.200501274</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43007</v>
+        <v>39353</v>
       </c>
       <c r="B95" t="n">
-        <v>-149008.3003487614</v>
+        <v>4400727.79202781</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43039</v>
+        <v>39386</v>
       </c>
       <c r="B96" t="n">
-        <v>-50235.2544219907</v>
+        <v>4208758.391232927</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43069</v>
+        <v>39416</v>
       </c>
       <c r="B97" t="n">
-        <v>-25931.58675983693</v>
+        <v>4200270.834528602</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43098</v>
+        <v>39447</v>
       </c>
       <c r="B98" t="n">
-        <v>15155.07689811582</v>
+        <v>3498863.318391658</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43131</v>
+        <v>39478</v>
       </c>
       <c r="B99" t="n">
-        <v>192442.8001025621</v>
+        <v>3506806.679886687</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>43159</v>
+        <v>39507</v>
       </c>
       <c r="B100" t="n">
-        <v>187896.7351210019</v>
+        <v>4950897.987035607</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>43188</v>
+        <v>39538</v>
       </c>
       <c r="B101" t="n">
-        <v>135470.9042886569</v>
+        <v>3875344.030903557</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>43220</v>
+        <v>39568</v>
       </c>
       <c r="B102" t="n">
-        <v>103712.537661861</v>
+        <v>3890745.131517909</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>43251</v>
+        <v>39598</v>
       </c>
       <c r="B103" t="n">
-        <v>98775.87763749306</v>
+        <v>3889476.882755502</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>43280</v>
+        <v>39629</v>
       </c>
       <c r="B104" t="n">
-        <v>96378.31983552058</v>
+        <v>3964651.688238892</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>43312</v>
+        <v>39660</v>
       </c>
       <c r="B105" t="n">
-        <v>92956.85534782356</v>
+        <v>3217934.463492722</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>43343</v>
+        <v>39689</v>
       </c>
       <c r="B106" t="n">
-        <v>95904.20751486669</v>
+        <v>4340138.577074896</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>43371</v>
+        <v>39721</v>
       </c>
       <c r="B107" t="n">
-        <v>78635.20070291875</v>
+        <v>5435143.800441342</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>43404</v>
+        <v>39752</v>
       </c>
       <c r="B108" t="n">
-        <v>10076.52438130398</v>
+        <v>8238340.73801329</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>43434</v>
+        <v>39780</v>
       </c>
       <c r="B109" t="n">
-        <v>-142049.7807935149</v>
+        <v>8025162.918881592</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B110" t="n">
-        <v>-38831.58975119947</v>
+        <v>8055097.492636774</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>43496</v>
+        <v>39843</v>
       </c>
       <c r="B111" t="n">
-        <v>-175689.7670623307</v>
+        <v>8052207.24987789</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>43524</v>
+        <v>39871</v>
       </c>
       <c r="B112" t="n">
-        <v>-176979.795247518</v>
+        <v>8625201.901263414</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>43553</v>
+        <v>39903</v>
       </c>
       <c r="B113" t="n">
-        <v>-176302.0939514814</v>
+        <v>8629351.167666413</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>43585</v>
+        <v>39933</v>
       </c>
       <c r="B114" t="n">
-        <v>-172413.9059514815</v>
+        <v>9080962.662016222</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>43616</v>
+        <v>39962</v>
       </c>
       <c r="B115" t="n">
-        <v>-136115.1027174436</v>
+        <v>9665165.183029339</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>43644</v>
+        <v>39994</v>
       </c>
       <c r="B116" t="n">
-        <v>-248989.0432897161</v>
+        <v>8718974.143738789</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>43677</v>
+        <v>40025</v>
       </c>
       <c r="B117" t="n">
-        <v>-194175.8641799798</v>
+        <v>9138413.766560683</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>43707</v>
+        <v>40056</v>
       </c>
       <c r="B118" t="n">
-        <v>-302809.3758908971</v>
+        <v>9400728.363995222</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B119" t="n">
-        <v>-303794.0976340664</v>
+        <v>9252144.512598986</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>43769</v>
+        <v>40116</v>
       </c>
       <c r="B120" t="n">
-        <v>-305337.6080822463</v>
+        <v>9282725.737175757</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>43798</v>
+        <v>40147</v>
       </c>
       <c r="B121" t="n">
-        <v>-258469.1423645603</v>
+        <v>9285325.808615144</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B122" t="n">
-        <v>-282303.3769509494</v>
+        <v>8585048.076027596</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>43861</v>
+        <v>40207</v>
       </c>
       <c r="B123" t="n">
-        <v>-336369.3160211713</v>
+        <v>8592326.936680282</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>43889</v>
+        <v>40235</v>
       </c>
       <c r="B124" t="n">
-        <v>-148194.6494199481</v>
+        <v>8451571.131148119</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B125" t="n">
-        <v>258328.6233011731</v>
+        <v>8426890.702857906</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>43951</v>
+        <v>40298</v>
       </c>
       <c r="B126" t="n">
-        <v>-11563.70328103491</v>
+        <v>8315694.902108993</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>43980</v>
+        <v>40326</v>
       </c>
       <c r="B127" t="n">
-        <v>-11251.20328103491</v>
+        <v>7266429.130506308</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B128" t="n">
-        <v>-11544.42758283843</v>
+        <v>7462427.629261897</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44043</v>
+        <v>40389</v>
       </c>
       <c r="B129" t="n">
-        <v>-13032.35556038318</v>
+        <v>7416607.268771295</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44074</v>
+        <v>40421</v>
       </c>
       <c r="B130" t="n">
-        <v>58429.05220359092</v>
+        <v>7418661.123257421</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B131" t="n">
-        <v>10559.65252217043</v>
+        <v>7909077.458323025</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44134</v>
+        <v>40480</v>
       </c>
       <c r="B132" t="n">
-        <v>-2457.131357719441</v>
+        <v>9163168.982952466</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44165</v>
+        <v>40512</v>
       </c>
       <c r="B133" t="n">
-        <v>55016.71063441205</v>
+        <v>9902715.104049876</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B134" t="n">
-        <v>85938.99565763891</v>
+        <v>11028577.77254024</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44225</v>
+        <v>40574</v>
       </c>
       <c r="B135" t="n">
-        <v>79624.44137591818</v>
+        <v>10293951.67357649</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44253</v>
+        <v>40602</v>
       </c>
       <c r="B136" t="n">
-        <v>87802.80067495396</v>
+        <v>11047278.41350985</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44286</v>
+        <v>40633</v>
       </c>
       <c r="B137" t="n">
-        <v>154765.4423512774</v>
+        <v>12437282.81501039</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44316</v>
+        <v>40662</v>
       </c>
       <c r="B138" t="n">
-        <v>244971.5543785056</v>
+        <v>17396627.60476926</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44344</v>
+        <v>40694</v>
       </c>
       <c r="B139" t="n">
-        <v>154859.1246909559</v>
+        <v>14010424.86740767</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44377</v>
+        <v>40724</v>
       </c>
       <c r="B140" t="n">
-        <v>153543.0133220635</v>
+        <v>13995283.41774527</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44407</v>
+        <v>40753</v>
       </c>
       <c r="B141" t="n">
-        <v>136745.4017184968</v>
+        <v>13992539.07112889</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44439</v>
+        <v>40786</v>
       </c>
       <c r="B142" t="n">
-        <v>136039.2906251242</v>
+        <v>11169886.53879317</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44469</v>
+        <v>40816</v>
       </c>
       <c r="B143" t="n">
-        <v>121967.1520821465</v>
+        <v>12853683.07657886</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44498</v>
+        <v>40847</v>
       </c>
       <c r="B144" t="n">
-        <v>43934.59422372616</v>
+        <v>10422662.95319723</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44530</v>
+        <v>40877</v>
       </c>
       <c r="B145" t="n">
-        <v>-16106.15899355574</v>
+        <v>10410815.01337036</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44561</v>
+        <v>40907</v>
       </c>
       <c r="B146" t="n">
-        <v>-19799.83842818858</v>
+        <v>10406141.46197271</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44592</v>
+        <v>40939</v>
       </c>
       <c r="B147" t="n">
-        <v>-239013.0619856103</v>
+        <v>10400491.80633938</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44620</v>
+        <v>40968</v>
       </c>
       <c r="B148" t="n">
-        <v>-246855.7279057609</v>
+        <v>9427585.870378392</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44651</v>
+        <v>40998</v>
       </c>
       <c r="B149" t="n">
-        <v>-413911.4981335091</v>
+        <v>9154212.566377498</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44680</v>
+        <v>41029</v>
       </c>
       <c r="B150" t="n">
-        <v>-411246.5547838694</v>
+        <v>9149186.788412649</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44712</v>
+        <v>41060</v>
       </c>
       <c r="B151" t="n">
-        <v>-362305.584736006</v>
+        <v>10168632.67150402</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44742</v>
+        <v>41089</v>
       </c>
       <c r="B152" t="n">
-        <v>-401968.2050416628</v>
+        <v>8005406.192285471</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44771</v>
+        <v>41121</v>
       </c>
       <c r="B153" t="n">
-        <v>-401968.2050416628</v>
+        <v>7893513.720895363</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44804</v>
+        <v>41152</v>
       </c>
       <c r="B154" t="n">
-        <v>-533631.706939423</v>
+        <v>8622202.580294175</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44834</v>
+        <v>41180</v>
       </c>
       <c r="B155" t="n">
-        <v>-433176.1878613775</v>
+        <v>10219675.28141838</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44865</v>
+        <v>41213</v>
       </c>
       <c r="B156" t="n">
-        <v>-843858.0658061563</v>
+        <v>9507835.411868954</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44895</v>
+        <v>41243</v>
       </c>
       <c r="B157" t="n">
-        <v>-843858.0658061563</v>
+        <v>9481951.236498805</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44925</v>
+        <v>41274</v>
       </c>
       <c r="B158" t="n">
-        <v>-843858.0658061563</v>
+        <v>9753374.075924212</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44957</v>
+        <v>41305</v>
       </c>
       <c r="B159" t="n">
-        <v>-845497.7065690155</v>
+        <v>9090012.332008775</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44985</v>
+        <v>41333</v>
       </c>
       <c r="B160" t="n">
-        <v>-845806.8280451795</v>
+        <v>9624561.993603604</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45016</v>
+        <v>41361</v>
       </c>
       <c r="B161" t="n">
-        <v>-917053.3217139477</v>
+        <v>9454146.937981907</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45044</v>
+        <v>41394</v>
       </c>
       <c r="B162" t="n">
-        <v>-935045.0763380544</v>
+        <v>11483091.87312629</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45077</v>
+        <v>41425</v>
       </c>
       <c r="B163" t="n">
-        <v>-922018.9839180837</v>
+        <v>11486309.45070622</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45107</v>
+        <v>41453</v>
       </c>
       <c r="B164" t="n">
-        <v>-935144.147698542</v>
+        <v>11506778.06707446</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45138</v>
+        <v>41486</v>
       </c>
       <c r="B165" t="n">
-        <v>-927676.7400550678</v>
+        <v>11021490.32718652</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45169</v>
+        <v>41516</v>
       </c>
       <c r="B166" t="n">
-        <v>-1056487.749527928</v>
+        <v>10464349.70811642</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45198</v>
+        <v>41547</v>
       </c>
       <c r="B167" t="n">
-        <v>-1038162.544749083</v>
+        <v>10169999.90405847</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>45230</v>
+        <v>41578</v>
       </c>
       <c r="B168" t="n">
-        <v>-1055768.442760485</v>
+        <v>10167599.71681226</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45260</v>
+        <v>41607</v>
       </c>
       <c r="B169" t="n">
-        <v>-1130011.743088343</v>
+        <v>10189370.59840028</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>45289</v>
+        <v>41639</v>
       </c>
       <c r="B170" t="n">
-        <v>-965006.6122827784</v>
+        <v>9444876.378909739</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>45322</v>
+        <v>41670</v>
       </c>
       <c r="B171" t="n">
-        <v>-1000252.993842374</v>
+        <v>8363547.584636702</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>45351</v>
+        <v>41698</v>
       </c>
       <c r="B172" t="n">
-        <v>-991335.8589650183</v>
+        <v>8370778.644842249</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>45379</v>
+        <v>41729</v>
       </c>
       <c r="B173" t="n">
-        <v>-1005278.490316544</v>
+        <v>7601127.013775405</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>45412</v>
+        <v>41759</v>
       </c>
       <c r="B174" t="n">
-        <v>-1110098.805839634</v>
+        <v>7593230.718241284</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>45415</v>
+        <v>41789</v>
       </c>
       <c r="B175" t="n">
-        <v>-1193998.805839634</v>
+        <v>7033463.567442388</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>41820</v>
+      </c>
+      <c r="B176" t="n">
+        <v>7031448.86574874</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>41851</v>
+      </c>
+      <c r="B177" t="n">
+        <v>6755748.768393545</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>41880</v>
+      </c>
+      <c r="B178" t="n">
+        <v>6754314.384353984</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>41912</v>
+      </c>
+      <c r="B179" t="n">
+        <v>7268319.108324504</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>41943</v>
+      </c>
+      <c r="B180" t="n">
+        <v>6985124.998645031</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>41971</v>
+      </c>
+      <c r="B181" t="n">
+        <v>6880466.153057948</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>42004</v>
+      </c>
+      <c r="B182" t="n">
+        <v>6639075.088093127</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>42034</v>
+      </c>
+      <c r="B183" t="n">
+        <v>6521093.648908997</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>42062</v>
+      </c>
+      <c r="B184" t="n">
+        <v>6112559.088175388</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>42094</v>
+      </c>
+      <c r="B185" t="n">
+        <v>6116071.772475854</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>42124</v>
+      </c>
+      <c r="B186" t="n">
+        <v>6210924.064955744</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>42153</v>
+      </c>
+      <c r="B187" t="n">
+        <v>6059437.251598316</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>42185</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5913696.78626172</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>42216</v>
+      </c>
+      <c r="B189" t="n">
+        <v>6265460.534414439</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>42247</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5573425.459649425</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>42277</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5270540.181205845</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>42307</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5239949.070995587</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>42338</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5234229.654680057</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>42369</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5060154.509466657</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>42398</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5064646.165845935</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>42429</v>
+      </c>
+      <c r="B196" t="n">
+        <v>4988361.243251551</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>42460</v>
+      </c>
+      <c r="B197" t="n">
+        <v>4814021.005443557</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>42489</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5644284.847270613</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>42521</v>
+      </c>
+      <c r="B199" t="n">
+        <v>4769544.343428334</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>42551</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5012572.826319055</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>42580</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5548025.998475591</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>42613</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5257046.206415819</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>42643</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5250916.069104063</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>42674</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5253315.395575106</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>42704</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5210489.149718517</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>42734</v>
+      </c>
+      <c r="B206" t="n">
+        <v>4960711.451483682</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>42766</v>
+      </c>
+      <c r="B207" t="n">
+        <v>4480243.011654346</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>42794</v>
+      </c>
+      <c r="B208" t="n">
+        <v>4481167.245340942</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>42825</v>
+      </c>
+      <c r="B209" t="n">
+        <v>4448942.138770753</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>42853</v>
+      </c>
+      <c r="B210" t="n">
+        <v>4444940.325790813</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="B211" t="n">
+        <v>4214869.182519833</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>42916</v>
+      </c>
+      <c r="B212" t="n">
+        <v>4210154.275097862</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>42947</v>
+      </c>
+      <c r="B213" t="n">
+        <v>4245305.454197702</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>42978</v>
+      </c>
+      <c r="B214" t="n">
+        <v>4767360.469775421</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>43007</v>
+      </c>
+      <c r="B215" t="n">
+        <v>4664695.521014493</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>43039</v>
+      </c>
+      <c r="B216" t="n">
+        <v>4495349.756633012</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>43069</v>
+      </c>
+      <c r="B217" t="n">
+        <v>4477569.0656211</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>43098</v>
+      </c>
+      <c r="B218" t="n">
+        <v>4679321.235849024</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>43131</v>
+      </c>
+      <c r="B219" t="n">
+        <v>4359200.295388555</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>43159</v>
+      </c>
+      <c r="B220" t="n">
+        <v>4371285.405479535</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>43188</v>
+      </c>
+      <c r="B221" t="n">
+        <v>4315254.354873216</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>43220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>3832353.693980141</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>43251</v>
+      </c>
+      <c r="B223" t="n">
+        <v>3839127.92750003</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>43280</v>
+      </c>
+      <c r="B224" t="n">
+        <v>3592269.115129231</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>43312</v>
+      </c>
+      <c r="B225" t="n">
+        <v>3874745.202241923</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>43343</v>
+      </c>
+      <c r="B226" t="n">
+        <v>4535335.416497224</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>43371</v>
+      </c>
+      <c r="B227" t="n">
+        <v>4538759.768375183</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>43404</v>
+      </c>
+      <c r="B228" t="n">
+        <v>4420121.789541487</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>43434</v>
+      </c>
+      <c r="B229" t="n">
+        <v>4305982.797603014</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>43465</v>
+      </c>
+      <c r="B230" t="n">
+        <v>4730237.536378395</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>43496</v>
+      </c>
+      <c r="B231" t="n">
+        <v>4347733.003299364</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>43524</v>
+      </c>
+      <c r="B232" t="n">
+        <v>4128288.241661649</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>43553</v>
+      </c>
+      <c r="B233" t="n">
+        <v>3929327.217241037</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>43585</v>
+      </c>
+      <c r="B234" t="n">
+        <v>3921754.200060171</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>43616</v>
+      </c>
+      <c r="B235" t="n">
+        <v>4196791.466632945</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>43644</v>
+      </c>
+      <c r="B236" t="n">
+        <v>3975200.39542322</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>43677</v>
+      </c>
+      <c r="B237" t="n">
+        <v>4458399.288452068</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B238" t="n">
+        <v>5124611.438523024</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>43738</v>
+      </c>
+      <c r="B239" t="n">
+        <v>5186356.212664931</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>43769</v>
+      </c>
+      <c r="B240" t="n">
+        <v>5184120.755737613</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>43798</v>
+      </c>
+      <c r="B241" t="n">
+        <v>5189101.828813103</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>43830</v>
+      </c>
+      <c r="B242" t="n">
+        <v>5192359.131051142</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>43861</v>
+      </c>
+      <c r="B243" t="n">
+        <v>4750748.379702283</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>43889</v>
+      </c>
+      <c r="B244" t="n">
+        <v>4202036.582435634</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>43921</v>
+      </c>
+      <c r="B245" t="n">
+        <v>3839668.408928944</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>43951</v>
+      </c>
+      <c r="B246" t="n">
+        <v>3125648.337829985</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>43980</v>
+      </c>
+      <c r="B247" t="n">
+        <v>3126459.509724295</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>44012</v>
+      </c>
+      <c r="B248" t="n">
+        <v>3125071.918242213</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B249" t="n">
+        <v>5418940.801451833</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>44074</v>
+      </c>
+      <c r="B250" t="n">
+        <v>7619991.620782079</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>44104</v>
+      </c>
+      <c r="B251" t="n">
+        <v>6434576.229512163</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>44134</v>
+      </c>
+      <c r="B252" t="n">
+        <v>6175808.947222724</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>44165</v>
+      </c>
+      <c r="B253" t="n">
+        <v>5909071.784715774</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>44196</v>
+      </c>
+      <c r="B254" t="n">
+        <v>5065259.458917078</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>44225</v>
+      </c>
+      <c r="B255" t="n">
+        <v>4198691.377075234</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>44253</v>
+      </c>
+      <c r="B256" t="n">
+        <v>3855066.82506077</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="B257" t="n">
+        <v>3491461.699081958</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>44316</v>
+      </c>
+      <c r="B258" t="n">
+        <v>4666025.231306729</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>44344</v>
+      </c>
+      <c r="B259" t="n">
+        <v>4486663.295564726</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="B260" t="n">
+        <v>3643261.332364544</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>44407</v>
+      </c>
+      <c r="B261" t="n">
+        <v>3639789.757355907</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>44439</v>
+      </c>
+      <c r="B262" t="n">
+        <v>3854512.838461685</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>44469</v>
+      </c>
+      <c r="B263" t="n">
+        <v>3869169.381804803</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>44498</v>
+      </c>
+      <c r="B264" t="n">
+        <v>3210279.641810127</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>44530</v>
+      </c>
+      <c r="B265" t="n">
+        <v>3243471.684149797</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>44561</v>
+      </c>
+      <c r="B266" t="n">
+        <v>2560216.55079495</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>44592</v>
+      </c>
+      <c r="B267" t="n">
+        <v>2549090.894690424</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>44620</v>
+      </c>
+      <c r="B268" t="n">
+        <v>2201888.985553235</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
+        <v>44651</v>
+      </c>
+      <c r="B269" t="n">
+        <v>2135580.549624917</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
+        <v>44680</v>
+      </c>
+      <c r="B270" t="n">
+        <v>1656851.704389365</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
+        <v>44712</v>
+      </c>
+      <c r="B271" t="n">
+        <v>1588520.957873204</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B272" t="n">
+        <v>2487205.48835164</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
+        <v>44771</v>
+      </c>
+      <c r="B273" t="n">
+        <v>3075968.376983784</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="B274" t="n">
+        <v>3020615.879685306</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
+        <v>44834</v>
+      </c>
+      <c r="B275" t="n">
+        <v>2575792.728123069</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
+        <v>44865</v>
+      </c>
+      <c r="B276" t="n">
+        <v>2137266.169874563</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
+        <v>44895</v>
+      </c>
+      <c r="B277" t="n">
+        <v>1964399.545433133</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
+        <v>44925</v>
+      </c>
+      <c r="B278" t="n">
+        <v>2524329.403584896</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B279" t="n">
+        <v>2803376.58579891</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
+        <v>44985</v>
+      </c>
+      <c r="B280" t="n">
+        <v>2790422.954214665</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
+        <v>45016</v>
+      </c>
+      <c r="B281" t="n">
+        <v>1987715.477260466</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B282" t="n">
+        <v>1603121.937442861</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
+        <v>45077</v>
+      </c>
+      <c r="B283" t="n">
+        <v>1607576.787146611</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="B284" t="n">
+        <v>1550633.814808206</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B285" t="n">
+        <v>1551945.451044836</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="B286" t="n">
+        <v>1487344.74286131</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>45198</v>
+      </c>
+      <c r="B287" t="n">
+        <v>1481781.751130808</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="B288" t="n">
+        <v>1185587.900143714</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="B289" t="n">
+        <v>1118688.473813117</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="n">
+        <v>45289</v>
+      </c>
+      <c r="B290" t="n">
+        <v>657008.5949971613</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="B291" t="n">
+        <v>602472.3626327313</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="B292" t="n">
+        <v>618515.0891942118</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="B293" t="n">
+        <v>677954.6087298166</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B294" t="n">
+        <v>2155550.769904786</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="n">
+        <v>45443</v>
+      </c>
+      <c r="B295" t="n">
+        <v>4634805.101387224</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B296" t="n">
+        <v>4639967.128766689</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B297" t="n">
+        <v>4700010.524320741</v>
       </c>
     </row>
   </sheetData>
